--- a/Simple_ Power Model for TECHIN514.xlsx
+++ b/Simple_ Power Model for TECHIN514.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Desktop/TECHIN514-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5407CFED-01DD-F740-B59E-AF6CFAD85B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5A7EDB-9DD0-E74A-A680-0F09BA3BBE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>System Parameters (defined by hardware)</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Display Screen</t>
+  </si>
+  <si>
+    <t>Days of use really pertain to the use case of the system. If the system requires to be "on" consistently, then the days of use should be either long so that battery change is not so frequent or the battery can be recharged easily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechargability plays a big role in the capacity and voltage selection and the days of use. </t>
+  </si>
+  <si>
+    <t>Any typical LiPo battery size would work. For a reference, it should be smaller than the size of the PCB board.</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1521,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Q42"/>
+  <dimension ref="A2:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="107" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2158,8 +2167,24 @@
         <v>37</v>
       </c>
     </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
